--- a/battleworld/Excel/LandParcel_地块表.xlsx
+++ b/battleworld/Excel/LandParcel_地块表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1578,7 +1578,7 @@
   <dimension ref="A1:AC200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
